--- a/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-code.xlsx
+++ b/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-code.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:35+00:00</t>
+    <t>2025-07-21T11:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-code.xlsx
+++ b/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-code.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:59:07+00:00</t>
+    <t>2025-07-22T07:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-code.xlsx
+++ b/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-code.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrMedicationCodes</t>
+    <t>FRMedicationCodes</t>
   </si>
   <si>
     <t>Title</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T07:44:08+00:00</t>
+    <t>2025-07-23T07:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,31 +80,34 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Le jeu de valeurs à utiliser pour indiquer le médicament dans Medication.code.coding.code</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[false]</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs à utiliser pour indiquer le médicament dans Medication.code.coding.code</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[false]</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
   </si>
   <si>
     <t>System URI</t>
@@ -405,18 +408,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -448,18 +451,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -491,18 +494,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
